--- a/COMMUNITY ANALYSIS.xlsx
+++ b/COMMUNITY ANALYSIS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\AYOMIDE's  BOOKS\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82980129-9824-46DB-B9E2-7EB95A3F0ABF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E130FB5E-3985-4124-B01F-B47F960C54BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{7A5D3BB7-DDFA-4F17-AA34-C896B3C79EC0}"/>
   </bookViews>
@@ -44,6 +44,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>AGE</t>
   </si>
@@ -579,38 +580,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'ORIGINAL DATA'!$E$3:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'ORIGINAL DATA'!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -1748,7 +1718,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2427,7 +2397,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="F26:F34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F26:F34">
     <sortCondition ref="F26"/>
   </sortState>
   <mergeCells count="1">
@@ -2442,10 +2412,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B46F666-474F-4F0C-8C35-33BAA625DBB9}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2453,10 +2423,9 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>55</v>
       </c>
@@ -2464,9 +2433,8 @@
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2480,14 +2448,11 @@
         <v>3</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>21</v>
       </c>
@@ -2501,16 +2466,13 @@
         <v>1.56</v>
       </c>
       <c r="E3" s="6">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" ref="F3:F11" si="0">C3/D3^2</f>
+        <f t="shared" ref="E3:E11" si="0">C3/D3^2</f>
         <v>27.12031558185404</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
@@ -2522,14 +2484,11 @@
         <v>1.7</v>
       </c>
       <c r="E4" s="6">
-        <v>24</v>
-      </c>
-      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>22.837370242214536</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>23</v>
       </c>
@@ -2543,16 +2502,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="6">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
@@ -2564,16 +2520,13 @@
         <v>1.54</v>
       </c>
       <c r="E6" s="6">
-        <v>41</v>
-      </c>
-      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>41.32231404958678</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -2585,16 +2538,13 @@
         <v>1.34</v>
       </c>
       <c r="E7" s="6">
-        <v>23</v>
-      </c>
-      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>25.061260859879702</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>5</v>
@@ -2606,16 +2556,13 @@
         <v>1.65</v>
       </c>
       <c r="E8" s="6">
-        <v>13</v>
-      </c>
-      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>12.488521579430671</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -2627,16 +2574,13 @@
         <v>1.6</v>
       </c>
       <c r="E9" s="6">
-        <v>45</v>
-      </c>
-      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>16.796874999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -2648,16 +2592,13 @@
         <v>1.7</v>
       </c>
       <c r="E10" s="6">
-        <v>63</v>
-      </c>
-      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>19.377162629757787</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>5</v>
@@ -2669,20 +2610,16 @@
         <v>1.8</v>
       </c>
       <c r="E11" s="6">
-        <v>21</v>
-      </c>
-      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>23.456790123456788</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -2704,7 +2641,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
